--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,114 +49,108 @@
     <t>horrible</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>insane</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>guilty</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -184,63 +175,72 @@
     <t>great</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>essential</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>top</t>
+    <t>first</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>first</t>
+    <t>thank</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>whole</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
@@ -250,46 +250,55 @@
     <t>highly</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>really</t>
+    <t>true</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>change</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -653,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -793,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,10 +884,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8823529411764706</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.7894736842105263</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1122,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.7543859649122807</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,16 +1252,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.64</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,16 +1302,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.6896551724137931</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1343,16 +1352,16 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.6111111111111112</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.5925925925925926</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1514,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,31 +1549,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.4242424242424243</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.3958333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,10 +1684,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1690,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1740,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.375</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6382978723404256</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.288135593220339</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1840,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.2857142857142857</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1890,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1914,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1922,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6231884057971014</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C27">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1940,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.2439024390243902</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1964,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1972,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6153846153846154</v>
+        <v>0.5625</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1990,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.2431693989071038</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L28">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2014,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>831</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2022,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5897435897435898</v>
+        <v>0.55</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2040,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.1956521739130435</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2064,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2072,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5882352941176471</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2090,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.1639344262295082</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2114,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2122,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2140,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.1481481481481481</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2164,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2172,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2190,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.1473684210526316</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2214,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2222,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2240,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.1230769230769231</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2264,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2272,13 +2281,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4642857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2290,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.1176470588235294</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L34">
         <v>10</v>
@@ -2314,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2322,13 +2331,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4642857142857143</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2340,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.1126760563380282</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2364,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2393,16 +2402,16 @@
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.1095890410958904</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2414,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2422,38 +2431,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4583333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="L37">
         <v>11</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>11</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>13</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37">
-        <v>0.05109489051094891</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2472,13 +2481,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2490,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.04946996466431095</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2514,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2522,37 +2531,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4230769230769231</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>15</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.04367469879518072</v>
+        <v>0.14</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2564,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>635</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2572,13 +2581,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3684210526315789</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2590,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>0.03888888888888889</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2614,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>519</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2622,13 +2631,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2640,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.02932551319648094</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2664,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>331</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2672,137 +2681,89 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43">
+        <v>0.05</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K42">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-      <c r="M42">
-        <v>18</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C43">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>13</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>65</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="M43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.04406779661016949</v>
-      </c>
-      <c r="C44">
-        <v>13</v>
-      </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>0.24</v>
-      </c>
-      <c r="F44">
-        <v>0.76</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>282</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="K44">
-        <v>0.02560819462227913</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2814,33 +2775,163 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>761</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>0.0353356890459364</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K45">
-        <v>0.02073732718894009</v>
-      </c>
-      <c r="L45">
+      <c r="K47">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48">
+        <v>0.02304737516005122</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50">
+        <v>0.0207492795389049</v>
+      </c>
+      <c r="L50">
         <v>36</v>
       </c>
-      <c r="M45">
-        <v>36</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1700</v>
+      <c r="M50">
+        <v>37</v>
+      </c>
+      <c r="N50">
+        <v>0.97</v>
+      </c>
+      <c r="O50">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
